--- a/ProductBacklog-2.xlsx
+++ b/ProductBacklog-2.xlsx
@@ -94,9 +94,6 @@
     <t>Dungeon Master</t>
   </si>
   <si>
-    <t>a potion of flying</t>
-  </si>
-  <si>
     <t>when consumed by the player, causes them to fly in any direction for 30 seconds.</t>
   </si>
   <si>
@@ -112,9 +109,6 @@
     <t>AGILE PRODUCT BACKLOG</t>
   </si>
   <si>
-    <t>a trap door in the floor</t>
-  </si>
-  <si>
     <t>Build a Cave Labrynth Level</t>
   </si>
   <si>
@@ -136,16 +130,22 @@
     <t>AI Minotaur seeks out the player and kills them on contact</t>
   </si>
   <si>
-    <t>1: Item appears and works as intended                                  2: Duration of fly time ends after x time</t>
-  </si>
-  <si>
-    <t>1: No light bleeding  2: No softlocks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1:AI seeks out the player  2:AI successfully kills player    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1:Useableand resets after triggering                                   2:triggered by x weight   3: undetectible by player         4: player cannot escape aftering falling in                    </t>
+    <t xml:space="preserve">1: Item appears and works as intended                                  2: Duration of fly time ends after x time                          </t>
+  </si>
+  <si>
+    <t>A trap door in the floor</t>
+  </si>
+  <si>
+    <t>A potion of flying</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1:AI seeks out the player                                                  2:AI successfully kills player    </t>
+  </si>
+  <si>
+    <t>1: Completed environment                                           2: No light bleeding                                                        3: No softlocks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1: Useable and resets after triggering                                   2: Triggered by x weight                                                          3: Undetectible by player                                                         4: Player cannot escape aftering falling in                    </t>
   </si>
 </sst>
 </file>
@@ -733,7 +733,7 @@
   </sheetPr>
   <dimension ref="A1:M64"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H4" sqref="H4"/>
     </sheetView>
@@ -746,13 +746,13 @@
     <col min="4" max="5" width="48.875" customWidth="1"/>
     <col min="6" max="6" width="23" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.125" customWidth="1"/>
-    <col min="8" max="8" width="40.625" style="25" customWidth="1"/>
+    <col min="8" max="8" width="43.125" style="25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="4" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C1" s="2"/>
       <c r="H1" s="20"/>
@@ -771,13 +771,13 @@
         <v>3</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H2" s="21" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -785,7 +785,7 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="1:13" ht="54" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="9">
         <v>1</v>
       </c>
@@ -793,19 +793,19 @@
         <v>4</v>
       </c>
       <c r="D3" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="12" t="s">
         <v>5</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>6</v>
       </c>
       <c r="F3" s="17">
         <v>4</v>
       </c>
       <c r="G3" s="17" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H3" s="22" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -813,7 +813,7 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="1:13" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="54.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="9">
         <v>2</v>
       </c>
@@ -821,16 +821,16 @@
         <v>4</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F4" s="17">
         <v>7</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H4" s="22" t="s">
         <v>22</v>
@@ -841,7 +841,7 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="9">
         <v>4</v>
       </c>
@@ -849,19 +849,19 @@
         <v>4</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F5" s="17">
         <v>4</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H5" s="22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
@@ -869,7 +869,7 @@
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
     </row>
-    <row r="6" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="9">
         <v>5</v>
       </c>
@@ -877,19 +877,19 @@
         <v>4</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F6" s="17">
         <v>10</v>
       </c>
       <c r="G6" s="17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H6" s="22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>

--- a/ProductBacklog-2.xlsx
+++ b/ProductBacklog-2.xlsx
@@ -130,9 +130,6 @@
     <t>AI Minotaur seeks out the player and kills them on contact</t>
   </si>
   <si>
-    <t xml:space="preserve">1: Item appears and works as intended                                  2: Duration of fly time ends after x time                          </t>
-  </si>
-  <si>
     <t>A trap door in the floor</t>
   </si>
   <si>
@@ -145,7 +142,10 @@
     <t>1: Completed environment                                           2: No light bleeding                                                        3: No softlocks</t>
   </si>
   <si>
-    <t xml:space="preserve">1: Useable and resets after triggering                                   2: Triggered by x weight                                                          3: Undetectible by player                                                         4: Player cannot escape aftering falling in                    </t>
+    <t xml:space="preserve">1: Item appears and works as intended                                  2: Duration of fly time ends after 30 seconds time                          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1: Useable and resets after triggering                                   2: Triggered by 75lbs weight                                                          3: Undetectible by player                                                         4: Player cannot escape aftering falling in                    </t>
   </si>
 </sst>
 </file>
@@ -793,7 +793,7 @@
         <v>4</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>5</v>
@@ -805,7 +805,7 @@
         <v>12</v>
       </c>
       <c r="H3" s="22" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -821,7 +821,7 @@
         <v>4</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>6</v>
@@ -861,7 +861,7 @@
         <v>12</v>
       </c>
       <c r="H5" s="22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
@@ -889,7 +889,7 @@
         <v>8</v>
       </c>
       <c r="H6" s="22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>

--- a/ProductBacklog-2.xlsx
+++ b/ProductBacklog-2.xlsx
@@ -145,7 +145,7 @@
     <t xml:space="preserve">1: Item appears and works as intended                                  2: Duration of fly time ends after 30 seconds time                          </t>
   </si>
   <si>
-    <t xml:space="preserve">1: Useable and resets after triggering                                   2: Triggered by 75lbs weight                                                          3: Undetectible by player                                                         4: Player cannot escape aftering falling in                    </t>
+    <t xml:space="preserve">1: Useable and resets after triggering                                   2: Triggered by 75lbs weight                                                          3: Undetectable by player                                                         4: Player cannot escape aftering falling in                    </t>
   </si>
 </sst>
 </file>
